--- a/docs/data/rivers_correct.xlsx
+++ b/docs/data/rivers_correct.xlsx
@@ -434,7 +434,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>wet</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
@@ -461,7 +461,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>wet</t>
+          <t>sunny</t>
         </is>
       </c>
     </row>
@@ -515,7 +515,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>snowy</t>
         </is>
       </c>
     </row>
@@ -542,7 +542,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
@@ -569,7 +569,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
@@ -704,7 +704,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
@@ -731,7 +731,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
@@ -785,7 +785,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
@@ -812,7 +812,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
@@ -866,7 +866,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>snowy</t>
         </is>
       </c>
     </row>
@@ -893,7 +893,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>snowy</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
@@ -920,7 +920,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>snowy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
@@ -932,7 +932,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Dow stream</t>
+          <t>Down stream</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>snowy</t>
         </is>
       </c>
     </row>
@@ -974,7 +974,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>snowy</t>
         </is>
       </c>
     </row>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>wet</t>
+          <t>sunny</t>
         </is>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>snowy</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
@@ -1136,7 +1136,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>wet</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
@@ -1190,7 +1190,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>wet</t>
+          <t>sunny</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>wet</t>
+          <t>snowy</t>
         </is>
       </c>
     </row>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>wet</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
@@ -1352,7 +1352,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>snowy</t>
+          <t>sunny</t>
         </is>
       </c>
     </row>
@@ -1379,7 +1379,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>wet</t>
+          <t>snowy</t>
         </is>
       </c>
     </row>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>snowy</t>
         </is>
       </c>
     </row>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>snowy</t>
         </is>
       </c>
     </row>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>snowy</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
@@ -1595,7 +1595,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
@@ -1676,7 +1676,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>wet</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
@@ -1730,7 +1730,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>snowy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
@@ -1784,7 +1784,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>wet</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>snowy</t>
         </is>
       </c>
     </row>
@@ -1838,7 +1838,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>wet</t>
+          <t>sunny</t>
         </is>
       </c>
     </row>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>wet</t>
+          <t>snowy</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>sunny</t>
         </is>
       </c>
     </row>
@@ -1946,7 +1946,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
@@ -1973,7 +1973,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>snowy</t>
         </is>
       </c>
     </row>
@@ -2000,7 +2000,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
@@ -2162,7 +2162,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>wet</t>
+          <t>snowy</t>
         </is>
       </c>
     </row>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>snowy</t>
+          <t>sunny</t>
         </is>
       </c>
     </row>
@@ -2216,7 +2216,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>sunny</t>
         </is>
       </c>
     </row>
@@ -2243,7 +2243,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>snowy</t>
         </is>
       </c>
     </row>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>wet</t>
+          <t>snowy</t>
         </is>
       </c>
     </row>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>snowy</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
@@ -2324,7 +2324,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>snowy</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
@@ -2378,7 +2378,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>snowy</t>
         </is>
       </c>
     </row>
@@ -2405,7 +2405,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
@@ -2432,7 +2432,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
@@ -2459,7 +2459,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>wet</t>
+          <t>snowy</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>snowy</t>
         </is>
       </c>
     </row>
@@ -2540,7 +2540,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>snowy</t>
         </is>
       </c>
     </row>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
@@ -2579,7 +2579,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Upstream</t>
+          <t>Up stream</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2594,7 +2594,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>snowy</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
@@ -2621,7 +2621,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>wet</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
@@ -2648,7 +2648,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
@@ -2702,14 +2702,14 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>snowy</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Grass</t>
+          <t>Grasse</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2729,7 +2729,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>wet</t>
+          <t>sunny</t>
         </is>
       </c>
     </row>
@@ -2756,7 +2756,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>snowy</t>
+          <t>sunny</t>
         </is>
       </c>
     </row>
@@ -2783,7 +2783,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
@@ -2837,7 +2837,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>snowy</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
@@ -2918,7 +2918,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>wet</t>
+          <t>sunny</t>
         </is>
       </c>
     </row>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
@@ -2999,7 +2999,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
@@ -3026,7 +3026,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>wet</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
@@ -3053,7 +3053,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>snowy</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
@@ -3080,7 +3080,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>snowy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
@@ -3107,7 +3107,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
@@ -3134,7 +3134,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>snowy</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
@@ -3161,7 +3161,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>wet</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
@@ -3188,7 +3188,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
@@ -3215,7 +3215,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>sunny</t>
         </is>
       </c>
     </row>
@@ -3242,7 +3242,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>snowy</t>
         </is>
       </c>
     </row>
@@ -3269,7 +3269,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>snowy</t>
         </is>
       </c>
     </row>
@@ -3296,7 +3296,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>snowy</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
@@ -3323,7 +3323,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>sunny</t>
         </is>
       </c>
     </row>
@@ -3350,7 +3350,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>wet</t>
+          <t>sunny</t>
         </is>
       </c>
     </row>
@@ -3377,7 +3377,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>wet</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
@@ -3431,7 +3431,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>snowy</t>
         </is>
       </c>
     </row>
@@ -3458,7 +3458,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>snowy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
@@ -3512,7 +3512,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>wet</t>
+          <t>sunny</t>
         </is>
       </c>
     </row>
@@ -3593,7 +3593,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>snowy</t>
+          <t>sunny</t>
         </is>
       </c>
     </row>
@@ -3620,7 +3620,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>wet</t>
+          <t>snowy</t>
         </is>
       </c>
     </row>
@@ -3642,7 +3642,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>wet</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
@@ -3708,7 +3708,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>snowy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
@@ -3730,7 +3730,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>snowy</t>
+          <t>sunny</t>
         </is>
       </c>
     </row>
@@ -3752,7 +3752,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>snowy</t>
         </is>
       </c>
     </row>
@@ -3796,7 +3796,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>wet</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
@@ -3818,7 +3818,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>snowy</t>
         </is>
       </c>
     </row>
@@ -3840,7 +3840,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>snowy</t>
         </is>
       </c>
     </row>
@@ -3862,7 +3862,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>wet</t>
+          <t>snowy</t>
         </is>
       </c>
     </row>
@@ -3884,7 +3884,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>wet</t>
+          <t>sunny</t>
         </is>
       </c>
     </row>
@@ -3911,7 +3911,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>snowy</t>
         </is>
       </c>
     </row>
@@ -3965,7 +3965,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>wet</t>
+          <t>snowy</t>
         </is>
       </c>
     </row>
@@ -4073,7 +4073,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
@@ -4127,7 +4127,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>wet</t>
+          <t>sunny</t>
         </is>
       </c>
     </row>
@@ -4154,7 +4154,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>wet</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
@@ -4181,7 +4181,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>wet</t>
+          <t>snowy</t>
         </is>
       </c>
     </row>
@@ -4208,7 +4208,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>snowy</t>
         </is>
       </c>
     </row>
@@ -4235,7 +4235,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>wet</t>
+          <t>snowy</t>
         </is>
       </c>
     </row>
@@ -4262,7 +4262,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>snowy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
@@ -4289,7 +4289,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>snowy</t>
+          <t>sunny</t>
         </is>
       </c>
     </row>
@@ -4316,7 +4316,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
@@ -4370,7 +4370,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>wet</t>
+          <t>snowy</t>
         </is>
       </c>
     </row>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>snowy</t>
+          <t>sunny</t>
         </is>
       </c>
     </row>
@@ -4424,7 +4424,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>snowy</t>
         </is>
       </c>
     </row>
@@ -4451,7 +4451,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>wet</t>
+          <t>sunny</t>
         </is>
       </c>
     </row>
@@ -4505,7 +4505,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>snowy</t>
+          <t>sunny</t>
         </is>
       </c>
     </row>
@@ -4532,7 +4532,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>snowy</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
@@ -4559,7 +4559,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>snowy</t>
         </is>
       </c>
     </row>
@@ -4586,7 +4586,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>wet</t>
+          <t>snowy</t>
         </is>
       </c>
     </row>
@@ -4640,7 +4640,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>sunny</t>
         </is>
       </c>
     </row>
@@ -4667,7 +4667,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>snowy</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
@@ -4694,7 +4694,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>snowy</t>
+          <t>sunny</t>
         </is>
       </c>
     </row>
@@ -4721,7 +4721,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>wet</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4748,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
@@ -4775,7 +4775,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>snowy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
@@ -4829,7 +4829,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>wet</t>
+          <t>sunny</t>
         </is>
       </c>
     </row>
@@ -4856,7 +4856,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>snowy</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
@@ -4883,7 +4883,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>wet</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
@@ -4910,7 +4910,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>snowy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
@@ -4937,7 +4937,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
@@ -4964,7 +4964,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
@@ -5045,7 +5045,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
@@ -5072,7 +5072,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
@@ -5099,7 +5099,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>snowy</t>
         </is>
       </c>
     </row>
@@ -5180,7 +5180,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>snowy</t>
         </is>
       </c>
     </row>
@@ -5207,7 +5207,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
@@ -5234,7 +5234,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>snowy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
@@ -5288,7 +5288,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>wet</t>
+          <t>sunny</t>
         </is>
       </c>
     </row>
@@ -5315,7 +5315,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>snowy</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
@@ -5342,7 +5342,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>wet</t>
+          <t>snowy</t>
         </is>
       </c>
     </row>
@@ -5369,7 +5369,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
@@ -5396,7 +5396,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
@@ -5423,7 +5423,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>snowy</t>
         </is>
       </c>
     </row>
@@ -5450,7 +5450,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>snowy</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
@@ -5477,7 +5477,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
@@ -5504,7 +5504,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>wet</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
@@ -5558,7 +5558,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>wet</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
@@ -5585,7 +5585,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
@@ -5639,7 +5639,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>snowy</t>
         </is>
       </c>
     </row>
@@ -5666,7 +5666,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>sunny</t>
         </is>
       </c>
     </row>
@@ -5747,7 +5747,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
@@ -5774,7 +5774,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
@@ -5801,7 +5801,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>sunny</t>
         </is>
       </c>
     </row>
@@ -5828,7 +5828,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>sunny</t>
         </is>
       </c>
     </row>
@@ -5855,7 +5855,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
@@ -5936,7 +5936,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>snowy</t>
         </is>
       </c>
     </row>
@@ -5963,7 +5963,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>wet</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
@@ -5990,7 +5990,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
@@ -6017,7 +6017,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>snowy</t>
         </is>
       </c>
     </row>
@@ -6044,7 +6044,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
@@ -6071,7 +6071,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
@@ -6125,7 +6125,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>wet</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
@@ -6152,7 +6152,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
@@ -6179,7 +6179,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>snowy</t>
         </is>
       </c>
     </row>
@@ -6206,7 +6206,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
@@ -6260,7 +6260,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
@@ -6287,7 +6287,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
@@ -6314,7 +6314,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
@@ -6368,7 +6368,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>snowy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
@@ -6449,7 +6449,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
@@ -6503,7 +6503,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>wet</t>
+          <t>snowy</t>
         </is>
       </c>
     </row>
@@ -6557,7 +6557,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>snowy</t>
         </is>
       </c>
     </row>
@@ -6611,7 +6611,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>wet</t>
+          <t>snowy</t>
         </is>
       </c>
     </row>
@@ -6692,7 +6692,7 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>snowy</t>
         </is>
       </c>
     </row>
@@ -6719,7 +6719,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
@@ -6746,7 +6746,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
@@ -6773,7 +6773,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>snowy</t>
         </is>
       </c>
     </row>
@@ -6800,7 +6800,7 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>snowy</t>
         </is>
       </c>
     </row>
@@ -6827,7 +6827,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>wet</t>
+          <t>snowy</t>
         </is>
       </c>
     </row>
@@ -6854,7 +6854,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
@@ -6881,7 +6881,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>wet</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
@@ -6908,7 +6908,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>snowy</t>
+          <t>sunny</t>
         </is>
       </c>
     </row>
@@ -6935,7 +6935,7 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>snowy</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
@@ -6989,7 +6989,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>sunny</t>
         </is>
       </c>
     </row>
@@ -7016,7 +7016,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>snowy</t>
         </is>
       </c>
     </row>
@@ -7070,7 +7070,7 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>snowy</t>
+          <t>sunny</t>
         </is>
       </c>
     </row>
@@ -7124,7 +7124,7 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
@@ -7151,7 +7151,7 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
@@ -7178,7 +7178,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
@@ -7205,7 +7205,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>snowy</t>
         </is>
       </c>
     </row>
@@ -7259,7 +7259,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
@@ -7286,7 +7286,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>snowy</t>
         </is>
       </c>
     </row>
@@ -7313,7 +7313,7 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>snowy</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
@@ -7340,7 +7340,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>snowy</t>
         </is>
       </c>
     </row>
@@ -7367,7 +7367,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>snowy</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
@@ -7394,7 +7394,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>wet</t>
+          <t>snowy</t>
         </is>
       </c>
     </row>
@@ -7421,7 +7421,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
@@ -7475,7 +7475,7 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>snowy</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
@@ -7502,7 +7502,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
@@ -7664,7 +7664,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>snowy</t>
         </is>
       </c>
     </row>
@@ -7691,7 +7691,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>snowy</t>
         </is>
       </c>
     </row>
@@ -7745,7 +7745,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>snowy</t>
+          <t>sunny</t>
         </is>
       </c>
     </row>
@@ -7799,7 +7799,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
@@ -7826,7 +7826,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
@@ -7880,7 +7880,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>wet</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
@@ -7907,7 +7907,7 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>snowy</t>
         </is>
       </c>
     </row>
@@ -7934,7 +7934,7 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
@@ -7988,7 +7988,7 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>sunny</t>
         </is>
       </c>
     </row>
@@ -8069,7 +8069,7 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>wet</t>
+          <t>snowy</t>
         </is>
       </c>
     </row>
@@ -8096,7 +8096,7 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>wet</t>
+          <t>snowy</t>
         </is>
       </c>
     </row>
@@ -8123,7 +8123,7 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>wet</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
@@ -8177,7 +8177,7 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>snowy</t>
+          <t>sunny</t>
         </is>
       </c>
     </row>
@@ -8204,7 +8204,7 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>snowy</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
@@ -8231,7 +8231,7 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>wet</t>
+          <t>cloudy</t>
         </is>
       </c>
     </row>
@@ -8258,7 +8258,7 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>wet</t>
+          <t>snowy</t>
         </is>
       </c>
     </row>
@@ -8312,7 +8312,7 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>sunny</t>
+          <t>snowy</t>
         </is>
       </c>
     </row>
@@ -8366,7 +8366,7 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>snowy</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>cloudy</t>
+          <t>sunny</t>
         </is>
       </c>
     </row>
@@ -8420,7 +8420,7 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>snowy</t>
+          <t>wet</t>
         </is>
       </c>
     </row>
